--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A87F9B-8895-AF48-BEF7-852D60B9E460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A3766-2DF1-314F-B5B5-724E1CCBAA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
     <sheet name="hubei" sheetId="3" r:id="rId2"/>
     <sheet name="china" sheetId="4" r:id="rId3"/>
-    <sheet name="说明" sheetId="2" r:id="rId4"/>
-    <sheet name="输入病例" sheetId="5" r:id="rId5"/>
+    <sheet name="输入病例" sheetId="5" r:id="rId4"/>
+    <sheet name="说明" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1734,7 +1734,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1743,22 +1743,141 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">月21日， 湖北省将2月19日核减的病例数重新加回到确诊病例，并对当日新增病例数进行校正。 前值394
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>21</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北省将</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>19</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日核减的病例数重新加回到确诊病例，并对当日新增病例数进行校正。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>前值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">394
 </t>
         </r>
       </text>
@@ -1769,7 +1888,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1778,7 +1897,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1788,7 +1907,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -1798,7 +1917,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1807,7 +1926,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -1817,7 +1936,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1826,12 +1945,62 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">云南各核减1例. 订正前值为74576
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>云南各核减</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>例</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>订正前值为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">74576
 </t>
         </r>
       </text>
@@ -2064,7 +2233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2310,10 +2479,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成都输入1例</t>
+    <t>广东、北京分别输入1例</t>
   </si>
   <si>
-    <t>甘肃输入11例（伊朗到兰州）</t>
+    <t>甘肃输入4例</t>
+  </si>
+  <si>
+    <t>北京2例，甘肃1例</t>
+  </si>
+  <si>
+    <t>甘肃17例，北京3例，上海3例，广东1例</t>
+  </si>
+  <si>
+    <t>甘肃输入11例（伊朗到兰州），北京4例，上海1例</t>
+  </si>
+  <si>
+    <t>成都输入1例，浙江2例</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>北京6例，上海2例，山东1例，甘肃1例</t>
+  </si>
+  <si>
+    <t>广东3例，甘肃2例，河南1例</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2445,12 +2635,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Microsoft Yahei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2485,7 +2669,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2512,9 +2696,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2798,13 +2979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4452,6 +4633,134 @@
       <c r="B62" s="1">
         <v>43899</v>
       </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>896</v>
+      </c>
+      <c r="F62">
+        <v>49965</v>
+      </c>
+      <c r="G62" s="6">
+        <v>2404</v>
+      </c>
+      <c r="H62" s="6">
+        <v>31829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>1212</v>
+      </c>
+      <c r="F63">
+        <v>49978</v>
+      </c>
+      <c r="G63" s="6">
+        <v>2423</v>
+      </c>
+      <c r="H63" s="6">
+        <v>33041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>1053</v>
+      </c>
+      <c r="F64">
+        <v>49986</v>
+      </c>
+      <c r="G64" s="6">
+        <v>2430</v>
+      </c>
+      <c r="H64" s="6">
+        <v>34094</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1103</v>
+      </c>
+      <c r="F65">
+        <v>49991</v>
+      </c>
+      <c r="G65" s="6">
+        <v>2436</v>
+      </c>
+      <c r="H65" s="6">
+        <v>35197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43906</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4462,13 +4771,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView zoomScale="183" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="G64" sqref="G64:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5569,7 +5878,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G61" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G65" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -6634,6 +6943,40 @@
       <c r="B62" s="1">
         <v>43899</v>
       </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>1152</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>-290</v>
+      </c>
+      <c r="L62">
+        <v>67760</v>
+      </c>
+      <c r="M62">
+        <v>3024</v>
+      </c>
+      <c r="N62">
+        <v>47585</v>
+      </c>
+      <c r="O62">
+        <v>3855</v>
+      </c>
+      <c r="P62">
+        <v>846</v>
+      </c>
+      <c r="Q62">
+        <v>14957</v>
+      </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63">
@@ -6642,6 +6985,40 @@
       <c r="B63" s="1">
         <v>43900</v>
       </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>1471</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>-289</v>
+      </c>
+      <c r="L63">
+        <v>67773</v>
+      </c>
+      <c r="M63">
+        <v>3046</v>
+      </c>
+      <c r="N63">
+        <v>49056</v>
+      </c>
+      <c r="O63">
+        <v>3613</v>
+      </c>
+      <c r="P63">
+        <v>799</v>
+      </c>
+      <c r="Q63">
+        <v>13712</v>
+      </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64">
@@ -6649,6 +7026,146 @@
       </c>
       <c r="B64" s="1">
         <v>43901</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>1242</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>-232</v>
+      </c>
+      <c r="L64">
+        <v>67781</v>
+      </c>
+      <c r="M64">
+        <v>3056</v>
+      </c>
+      <c r="N64">
+        <v>50298</v>
+      </c>
+      <c r="O64">
+        <v>3453</v>
+      </c>
+      <c r="P64">
+        <v>727</v>
+      </c>
+      <c r="Q64">
+        <v>12769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1225</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>-232</v>
+      </c>
+      <c r="L65">
+        <v>67786</v>
+      </c>
+      <c r="M65">
+        <v>3062</v>
+      </c>
+      <c r="N65">
+        <v>51553</v>
+      </c>
+      <c r="O65">
+        <v>3251</v>
+      </c>
+      <c r="P65">
+        <v>697</v>
+      </c>
+      <c r="Q65">
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43910</v>
       </c>
     </row>
   </sheetData>
@@ -6660,13 +7177,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L66"/>
+  <dimension ref="B1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
+      <selection pane="bottomRight" activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8427,51 +8944,146 @@
       <c r="B62" s="5">
         <v>43899</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1297</v>
+      </c>
+      <c r="F62" s="6">
+        <v>-317</v>
+      </c>
+      <c r="G62" s="6">
+        <v>36</v>
+      </c>
+      <c r="H62" s="6">
+        <v>80754</v>
+      </c>
+      <c r="I62" s="6">
+        <v>3136</v>
+      </c>
+      <c r="J62" s="6">
+        <v>59897</v>
+      </c>
+      <c r="K62" s="6">
+        <v>4974</v>
+      </c>
+      <c r="L62" s="6">
+        <v>349</v>
+      </c>
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="5">
         <v>43900</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>22</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1578</v>
+      </c>
+      <c r="F63" s="6">
+        <v>-302</v>
+      </c>
+      <c r="G63" s="6">
+        <v>31</v>
+      </c>
+      <c r="H63" s="6">
+        <v>80778</v>
+      </c>
+      <c r="I63" s="6">
+        <v>3158</v>
+      </c>
+      <c r="J63" s="6">
+        <v>61475</v>
+      </c>
+      <c r="K63" s="6">
+        <v>4492</v>
+      </c>
+      <c r="L63" s="6">
+        <v>285</v>
+      </c>
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="5">
         <v>43901</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="2:11">
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1318</v>
+      </c>
+      <c r="F64" s="6">
+        <v>-235</v>
+      </c>
+      <c r="G64" s="6">
+        <v>33</v>
+      </c>
+      <c r="H64" s="6">
+        <v>80793</v>
+      </c>
+      <c r="I64" s="6">
+        <v>3169</v>
+      </c>
+      <c r="J64" s="6">
+        <v>62793</v>
+      </c>
+      <c r="K64" s="6">
+        <v>4257</v>
+      </c>
+      <c r="L64" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
       <c r="B65" s="5">
         <v>43902</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="2:11">
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1318</v>
+      </c>
+      <c r="F65" s="6">
+        <v>-237</v>
+      </c>
+      <c r="G65" s="6">
+        <v>33</v>
+      </c>
+      <c r="H65" s="6">
+        <v>80813</v>
+      </c>
+      <c r="I65" s="6">
+        <v>3176</v>
+      </c>
+      <c r="J65" s="6">
+        <v>64111</v>
+      </c>
+      <c r="K65" s="6">
+        <v>4020</v>
+      </c>
+      <c r="L65" s="6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="5">
+        <v>43903</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -8479,6 +9091,31 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="5">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="5">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="5">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="5">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="5">
+        <v>43908</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8488,6 +9125,260 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>43887</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>43890</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B11">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B13">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B14">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -8636,135 +9527,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:F13"/>
-  <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>43899</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A3766-2DF1-314F-B5B5-724E1CCBAA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24697C47-C0AE-A04A-942B-32C3089CFB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2504,6 +2504,9 @@
   </si>
   <si>
     <t>广东3例，甘肃2例，河南1例</t>
+  </si>
+  <si>
+    <t>上海2例，北京1例</t>
   </si>
 </sst>
 </file>
@@ -7179,7 +7182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9128,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="174" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="174" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9330,6 +9333,15 @@
     <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>43902</v>
+      </c>
+      <c r="B16">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24697C47-C0AE-A04A-942B-32C3089CFB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AEE7B7-4E2D-B142-A135-521DFCAF117E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2475,26 +2475,10 @@
     <t>浙江省新增新型冠状病毒肺炎确诊病例7例（均为丽水市青田县报告的意大利输入病例）</t>
   </si>
   <si>
-    <t>北京输入2例 （全国非湖北新增4例， 北京3，宁夏1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东、北京分别输入1例</t>
-  </si>
-  <si>
-    <t>甘肃输入4例</t>
-  </si>
-  <si>
     <t>北京2例，甘肃1例</t>
   </si>
   <si>
     <t>甘肃17例，北京3例，上海3例，广东1例</t>
-  </si>
-  <si>
-    <t>甘肃输入11例（伊朗到兰州），北京4例，上海1例</t>
-  </si>
-  <si>
-    <t>成都输入1例，浙江2例</t>
   </si>
   <si>
     <t>新增</t>
@@ -2507,6 +2491,36 @@
   </si>
   <si>
     <t>上海2例，北京1例</t>
+  </si>
+  <si>
+    <t>上海4例，甘肃2例，北京1例</t>
+  </si>
+  <si>
+    <t>北京5例，浙江4例，上海3例，甘肃3例，广东1例</t>
+  </si>
+  <si>
+    <t>北京4例，广东4例，上海2例，云南1例，甘肃1例</t>
+  </si>
+  <si>
+    <t>甘肃4例</t>
+  </si>
+  <si>
+    <t>广东1例，北京1例</t>
+  </si>
+  <si>
+    <t>甘肃11例（伊朗到兰州），北京4例，上海1例</t>
+  </si>
+  <si>
+    <t>成都1例，浙江2例</t>
+  </si>
+  <si>
+    <t>北京2例 （全国非湖北新增4例， 北京3，宁夏1）</t>
+  </si>
+  <si>
+    <t>北京9例，上海3例，广东3例，浙江1例，山东1例，广西1例，云南1例，陕西1例</t>
+  </si>
+  <si>
+    <t>广州9例，北京3例，上海3例，四川1例</t>
   </si>
 </sst>
 </file>
@@ -2982,13 +2996,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4740,6 +4754,24 @@
       <c r="B66" s="1">
         <v>43903</v>
       </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>1254</v>
+      </c>
+      <c r="F66">
+        <v>49995</v>
+      </c>
+      <c r="G66" s="6">
+        <v>2446</v>
+      </c>
+      <c r="H66" s="6">
+        <v>36451</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
@@ -4748,6 +4780,24 @@
       <c r="B67" s="1">
         <v>43904</v>
       </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>1181</v>
+      </c>
+      <c r="F67">
+        <v>49999</v>
+      </c>
+      <c r="G67" s="6">
+        <v>2456</v>
+      </c>
+      <c r="H67" s="6">
+        <v>37632</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
@@ -4756,6 +4806,24 @@
       <c r="B68" s="1">
         <v>43905</v>
       </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>752</v>
+      </c>
+      <c r="F68">
+        <v>50003</v>
+      </c>
+      <c r="G68" s="6">
+        <v>2469</v>
+      </c>
+      <c r="H68" s="6">
+        <v>38384</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
@@ -4763,6 +4831,122 @@
       </c>
       <c r="B69" s="1">
         <v>43906</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>836</v>
+      </c>
+      <c r="F69">
+        <v>50004</v>
+      </c>
+      <c r="G69" s="6">
+        <v>2480</v>
+      </c>
+      <c r="H69" s="6">
+        <v>39220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43907</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>812</v>
+      </c>
+      <c r="F70">
+        <v>50005</v>
+      </c>
+      <c r="G70" s="6">
+        <v>2490</v>
+      </c>
+      <c r="H70" s="6">
+        <v>40032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43916</v>
       </c>
     </row>
   </sheetData>
@@ -4777,10 +4961,10 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G64" sqref="G64:G65"/>
+      <selection pane="bottomRight" activeCell="G69" sqref="G69:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5881,7 +6065,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G65" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G70" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -7114,6 +7298,40 @@
       <c r="B66" s="1">
         <v>43903</v>
       </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>1390</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>-405</v>
+      </c>
+      <c r="L66">
+        <v>67790</v>
+      </c>
+      <c r="M66">
+        <v>3075</v>
+      </c>
+      <c r="N66">
+        <v>52943</v>
+      </c>
+      <c r="O66">
+        <v>2896</v>
+      </c>
+      <c r="P66">
+        <v>647</v>
+      </c>
+      <c r="Q66">
+        <v>10485</v>
+      </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67">
@@ -7122,6 +7340,40 @@
       <c r="B67" s="1">
         <v>43904</v>
       </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>1335</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>-380</v>
+      </c>
+      <c r="L67">
+        <v>67794</v>
+      </c>
+      <c r="M67">
+        <v>3085</v>
+      </c>
+      <c r="N67">
+        <v>54278</v>
+      </c>
+      <c r="O67">
+        <v>2551</v>
+      </c>
+      <c r="P67">
+        <v>612</v>
+      </c>
+      <c r="Q67">
+        <v>9376</v>
+      </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68">
@@ -7130,6 +7382,40 @@
       <c r="B68" s="1">
         <v>43905</v>
       </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>816</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>-188</v>
+      </c>
+      <c r="L68">
+        <v>67798</v>
+      </c>
+      <c r="M68">
+        <v>3099</v>
+      </c>
+      <c r="N68">
+        <v>55094</v>
+      </c>
+      <c r="O68">
+        <v>2403</v>
+      </c>
+      <c r="P68">
+        <v>572</v>
+      </c>
+      <c r="Q68">
+        <v>8703</v>
+      </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69">
@@ -7138,6 +7424,40 @@
       <c r="B69" s="1">
         <v>43906</v>
       </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>893</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>-193</v>
+      </c>
+      <c r="L69">
+        <v>67799</v>
+      </c>
+      <c r="M69">
+        <v>3111</v>
+      </c>
+      <c r="N69">
+        <v>55987</v>
+      </c>
+      <c r="O69">
+        <v>2243</v>
+      </c>
+      <c r="P69">
+        <v>539</v>
+      </c>
+      <c r="Q69">
+        <v>8004</v>
+      </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70">
@@ -7145,6 +7465,40 @@
       </c>
       <c r="B70" s="1">
         <v>43907</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>896</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>-202</v>
+      </c>
+      <c r="L70">
+        <v>67800</v>
+      </c>
+      <c r="M70">
+        <v>3122</v>
+      </c>
+      <c r="N70">
+        <v>56883</v>
+      </c>
+      <c r="O70">
+        <v>2077</v>
+      </c>
+      <c r="P70">
+        <v>503</v>
+      </c>
+      <c r="Q70">
+        <v>7336</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -7183,10 +7537,10 @@
   <dimension ref="B1:L71"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L65" sqref="L65"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9087,32 +9441,175 @@
       <c r="B66" s="5">
         <v>43903</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1430</v>
+      </c>
+      <c r="F66" s="6">
+        <v>-410</v>
+      </c>
+      <c r="G66" s="6">
+        <v>17</v>
+      </c>
+      <c r="H66" s="6">
+        <v>80824</v>
+      </c>
+      <c r="I66" s="6">
+        <v>3189</v>
+      </c>
+      <c r="J66" s="6">
+        <v>65541</v>
+      </c>
+      <c r="K66" s="6">
+        <v>3610</v>
+      </c>
+      <c r="L66" s="6">
+        <v>115</v>
+      </c>
     </row>
     <row r="67" spans="2:12">
       <c r="B67" s="5">
         <v>43904</v>
       </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1370</v>
+      </c>
+      <c r="F67" s="6">
+        <v>-384</v>
+      </c>
+      <c r="G67" s="6">
+        <v>39</v>
+      </c>
+      <c r="H67" s="6">
+        <v>80844</v>
+      </c>
+      <c r="I67" s="6">
+        <v>3199</v>
+      </c>
+      <c r="J67" s="6">
+        <v>66911</v>
+      </c>
+      <c r="K67" s="6">
+        <v>3226</v>
+      </c>
+      <c r="L67" s="6">
+        <v>113</v>
+      </c>
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="5">
         <v>43905</v>
       </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68" s="6">
+        <v>838</v>
+      </c>
+      <c r="F68" s="6">
+        <v>-194</v>
+      </c>
+      <c r="G68" s="6">
+        <v>41</v>
+      </c>
+      <c r="H68" s="6">
+        <v>80860</v>
+      </c>
+      <c r="I68" s="6">
+        <v>3213</v>
+      </c>
+      <c r="J68" s="6">
+        <v>67749</v>
+      </c>
+      <c r="K68" s="6">
+        <v>3032</v>
+      </c>
+      <c r="L68" s="6">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="5">
         <v>43906</v>
       </c>
+      <c r="C69">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69" s="6">
+        <v>930</v>
+      </c>
+      <c r="F69" s="6">
+        <v>-202</v>
+      </c>
+      <c r="G69" s="6">
+        <v>45</v>
+      </c>
+      <c r="H69" s="6">
+        <v>80881</v>
+      </c>
+      <c r="I69" s="6">
+        <v>3226</v>
+      </c>
+      <c r="J69" s="6">
+        <v>68679</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2830</v>
+      </c>
+      <c r="L69" s="6">
+        <v>128</v>
+      </c>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="5">
         <v>43907</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>11</v>
+      </c>
+      <c r="E70" s="6">
+        <v>922</v>
+      </c>
+      <c r="F70" s="6">
+        <v>-208</v>
+      </c>
+      <c r="G70" s="6">
+        <v>21</v>
+      </c>
+      <c r="H70" s="6">
+        <v>80894</v>
+      </c>
+      <c r="I70" s="6">
+        <v>3237</v>
+      </c>
+      <c r="J70" s="6">
+        <v>69601</v>
+      </c>
+      <c r="K70" s="6">
+        <v>2622</v>
+      </c>
+      <c r="L70" s="6">
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="2:12">
@@ -9131,8 +9628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9145,7 +9642,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9212,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -9229,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9243,7 +9740,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9257,7 +9754,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9271,7 +9768,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9285,7 +9782,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9299,7 +9796,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9313,7 +9810,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9327,7 +9824,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9341,45 +9838,90 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>143</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>155</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>43910</v>
       </c>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AEE7B7-4E2D-B142-A135-521DFCAF117E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99A24C6-4F39-9F49-AB52-D917946B1654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2521,6 +2521,15 @@
   </si>
   <si>
     <t>广州9例，北京3例，上海3例，四川1例</t>
+  </si>
+  <si>
+    <t>北京21例，广东9例，上海2例，黑龙江1例，浙江1例</t>
+  </si>
+  <si>
+    <t>广东14例，上海8例，北京6例，福建3例，天津、辽宁、黑龙江、浙江、山东、广西、四川、甘肃各1例</t>
+  </si>
+  <si>
+    <t>北京14例，上海9例，广东7例，福建4例，浙江、山东、陕西各2例，四川1例</t>
   </si>
 </sst>
 </file>
@@ -2999,10 +3008,10 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4884,6 +4893,24 @@
       <c r="B71" s="1">
         <v>43908</v>
       </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>733</v>
+      </c>
+      <c r="F71">
+        <v>50005</v>
+      </c>
+      <c r="G71" s="6">
+        <v>2496</v>
+      </c>
+      <c r="H71" s="6">
+        <v>40765</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
@@ -4892,6 +4919,24 @@
       <c r="B72" s="1">
         <v>43909</v>
       </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>624</v>
+      </c>
+      <c r="F72">
+        <v>50005</v>
+      </c>
+      <c r="G72" s="6">
+        <v>2498</v>
+      </c>
+      <c r="H72" s="6">
+        <v>41389</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
@@ -4899,6 +4944,24 @@
       </c>
       <c r="B73" s="1">
         <v>43910</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>502</v>
+      </c>
+      <c r="F73">
+        <v>50005</v>
+      </c>
+      <c r="G73" s="6">
+        <v>2504</v>
+      </c>
+      <c r="H73" s="6">
+        <v>41891</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4961,10 +5024,10 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G69" sqref="G69:G70"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6065,7 +6128,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G70" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G73" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -7508,6 +7571,40 @@
       <c r="B71" s="1">
         <v>43908</v>
       </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>795</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="0"/>
+        <v>-306</v>
+      </c>
+      <c r="L71">
+        <v>67800</v>
+      </c>
+      <c r="M71">
+        <v>3130</v>
+      </c>
+      <c r="N71">
+        <v>57678</v>
+      </c>
+      <c r="O71">
+        <v>1809</v>
+      </c>
+      <c r="P71">
+        <v>465</v>
+      </c>
+      <c r="Q71">
+        <v>6636</v>
+      </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72">
@@ -7516,6 +7613,40 @@
       <c r="B72" s="1">
         <v>43909</v>
       </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>703</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>-176</v>
+      </c>
+      <c r="L72">
+        <v>67800</v>
+      </c>
+      <c r="M72">
+        <v>3132</v>
+      </c>
+      <c r="N72">
+        <v>58381</v>
+      </c>
+      <c r="O72">
+        <v>1657</v>
+      </c>
+      <c r="P72">
+        <v>441</v>
+      </c>
+      <c r="Q72">
+        <v>6061</v>
+      </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73">
@@ -7523,6 +7654,40 @@
       </c>
       <c r="B73" s="1">
         <v>43910</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>561</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="0"/>
+        <v>-171</v>
+      </c>
+      <c r="L73">
+        <v>67800</v>
+      </c>
+      <c r="M73">
+        <v>3139</v>
+      </c>
+      <c r="N73">
+        <v>58942</v>
+      </c>
+      <c r="O73">
+        <v>1521</v>
+      </c>
+      <c r="P73">
+        <v>406</v>
+      </c>
+      <c r="Q73">
+        <v>5423</v>
       </c>
     </row>
   </sheetData>
@@ -7534,13 +7699,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L71"/>
+  <dimension ref="B1:L92"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9615,6 +9780,201 @@
     <row r="71" spans="2:12">
       <c r="B71" s="5">
         <v>43908</v>
+      </c>
+      <c r="C71">
+        <v>34</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71" s="6">
+        <v>819</v>
+      </c>
+      <c r="F71" s="6">
+        <v>-308</v>
+      </c>
+      <c r="G71" s="6">
+        <v>23</v>
+      </c>
+      <c r="H71" s="6">
+        <v>80928</v>
+      </c>
+      <c r="I71" s="6">
+        <v>3245</v>
+      </c>
+      <c r="J71" s="6">
+        <v>70420</v>
+      </c>
+      <c r="K71" s="6">
+        <v>2314</v>
+      </c>
+      <c r="L71" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="5">
+        <v>43909</v>
+      </c>
+      <c r="C72">
+        <v>39</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" s="6">
+        <v>730</v>
+      </c>
+      <c r="F72" s="6">
+        <v>-178</v>
+      </c>
+      <c r="G72" s="6">
+        <v>31</v>
+      </c>
+      <c r="H72" s="6">
+        <v>80967</v>
+      </c>
+      <c r="I72" s="6">
+        <v>3248</v>
+      </c>
+      <c r="J72" s="6">
+        <v>71150</v>
+      </c>
+      <c r="K72" s="6">
+        <v>2136</v>
+      </c>
+      <c r="L72" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="5">
+        <v>43910</v>
+      </c>
+      <c r="C73">
+        <v>41</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73" s="6">
+        <v>590</v>
+      </c>
+      <c r="F73" s="6">
+        <v>-173</v>
+      </c>
+      <c r="G73" s="6">
+        <v>36</v>
+      </c>
+      <c r="H73" s="6">
+        <v>81008</v>
+      </c>
+      <c r="I73" s="6">
+        <v>3255</v>
+      </c>
+      <c r="J73" s="6">
+        <v>71740</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1963</v>
+      </c>
+      <c r="L73" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="5">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="5">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="5">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="5">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="5">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="5">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="5">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="5">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="5">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="5">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="5">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="5">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="5">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="5">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="5">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="5">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="5">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="5">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="5">
+        <v>43929</v>
       </c>
     </row>
   </sheetData>
@@ -9628,8 +9988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="174" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A15" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9915,15 +10275,42 @@
       <c r="A22" s="1">
         <v>43908</v>
       </c>
+      <c r="B22">
+        <v>189</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
+      <c r="B23">
+        <v>228</v>
+      </c>
+      <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>43910</v>
+      </c>
+      <c r="B24">
+        <v>269</v>
+      </c>
+      <c r="C24">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99A24C6-4F39-9F49-AB52-D917946B1654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C824FAC-50D8-9946-9278-00A9B6AF7C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1173,7 +1173,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1183,7 +1183,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -1590,6 +1590,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hfwang</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="H37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -2225,6 +2226,117 @@
             <charset val="134"/>
           </rPr>
           <t>195</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="1" shapeId="0" xr:uid="{28F9B93F-BC86-CF4C-A131-51B6AF9B023D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G77" authorId="1" shapeId="0" xr:uid="{77009FE4-47BB-4E4B-9644-AB0CCF14D8E0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C78" authorId="1" shapeId="0" xr:uid="{10E8534A-FC07-7A46-B5EF-156A21DDA36D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G78" authorId="1" shapeId="0" xr:uid="{F2659537-41E5-8848-9387-066F354ACF4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Candice:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
         </r>
       </text>
     </comment>
@@ -2233,7 +2345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2531,6 +2643,24 @@
   <si>
     <t>北京14例，上海9例，广东7例，福建4例，浙江、山东、陕西各2例，四川1例</t>
   </si>
+  <si>
+    <t>上海14例，北京13例，广东7例，福建4例，江苏2例，河北、浙江、江西、山东、四川各1例</t>
+  </si>
+  <si>
+    <t>北京10例，上海10例，福建6例，广东6例，山东2例，甘肃2例，浙江、河南、重庆各1例</t>
+  </si>
+  <si>
+    <t>北京31例，广东14例，上海9例，福建5例，天津4例，江苏3例，浙江2例，四川2例，山西、辽宁、山东、重庆各1例</t>
+  </si>
+  <si>
+    <t>上海19例，北京5例，广东5例，天津4例，福建4例，内蒙古2例，江苏2例，四川2例，吉林1例，浙江1例，山东1例，陕西1例</t>
+  </si>
+  <si>
+    <t>上海18例，内蒙古12例，广东11例，北京6例，福建6例，陕西3例，天津2例，浙江2例，江苏2例，云南2例，山西1例，吉林1例，河南1例</t>
+  </si>
+  <si>
+    <t>上海17例，广东12例，北京4例，天津4例，内蒙古3例，浙江3例，福建3例，山东2例，云南2例，辽宁1例，江苏1例，四川1例，陕西1例</t>
+  </si>
 </sst>
 </file>
 
@@ -2539,7 +2669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2662,6 +2792,21 @@
     <font>
       <sz val="11"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -3007,11 +3152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4971,6 +5116,24 @@
       <c r="B74" s="1">
         <v>43911</v>
       </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>463</v>
+      </c>
+      <c r="F74">
+        <v>50005</v>
+      </c>
+      <c r="G74" s="6">
+        <v>2508</v>
+      </c>
+      <c r="H74" s="6">
+        <v>42354</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
@@ -4979,6 +5142,24 @@
       <c r="B75" s="1">
         <v>43912</v>
       </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>434</v>
+      </c>
+      <c r="F75">
+        <v>50005</v>
+      </c>
+      <c r="G75" s="6">
+        <v>2517</v>
+      </c>
+      <c r="H75" s="6">
+        <v>42788</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
@@ -4987,6 +5168,24 @@
       <c r="B76" s="1">
         <v>43913</v>
       </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>426</v>
+      </c>
+      <c r="F76">
+        <v>50006</v>
+      </c>
+      <c r="G76" s="6">
+        <v>2524</v>
+      </c>
+      <c r="H76" s="6">
+        <v>43214</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
@@ -4995,6 +5194,24 @@
       <c r="B77" s="1">
         <v>43914</v>
       </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>472</v>
+      </c>
+      <c r="F77">
+        <v>50006</v>
+      </c>
+      <c r="G77" s="6">
+        <v>2526</v>
+      </c>
+      <c r="H77" s="6">
+        <v>43686</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
@@ -5003,6 +5220,24 @@
       <c r="B78" s="1">
         <v>43915</v>
       </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>382</v>
+      </c>
+      <c r="F78">
+        <v>50006</v>
+      </c>
+      <c r="G78" s="6">
+        <v>2531</v>
+      </c>
+      <c r="H78" s="6">
+        <v>44068</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
@@ -5010,6 +5245,24 @@
       </c>
       <c r="B79" s="1">
         <v>43916</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>523</v>
+      </c>
+      <c r="F79">
+        <v>50006</v>
+      </c>
+      <c r="G79" s="6">
+        <v>2535</v>
+      </c>
+      <c r="H79" s="6">
+        <v>44591</v>
       </c>
     </row>
   </sheetData>
@@ -5021,13 +5274,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72:G73"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6128,7 +6381,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G73" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G79" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -7688,6 +7941,450 @@
       </c>
       <c r="Q73">
         <v>5423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43911</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>490</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="0"/>
+        <v>-115</v>
+      </c>
+      <c r="L74">
+        <v>67800</v>
+      </c>
+      <c r="M74">
+        <v>3144</v>
+      </c>
+      <c r="N74">
+        <v>59432</v>
+      </c>
+      <c r="O74">
+        <v>1419</v>
+      </c>
+      <c r="P74">
+        <v>393</v>
+      </c>
+      <c r="Q74">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>447</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="0"/>
+        <v>-98</v>
+      </c>
+      <c r="L75">
+        <v>67800</v>
+      </c>
+      <c r="M75">
+        <v>3153</v>
+      </c>
+      <c r="N75">
+        <v>59879</v>
+      </c>
+      <c r="O75">
+        <v>1343</v>
+      </c>
+      <c r="P75">
+        <v>371</v>
+      </c>
+      <c r="Q75">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43913</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>444</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="0"/>
+        <v>-175</v>
+      </c>
+      <c r="L76">
+        <v>67801</v>
+      </c>
+      <c r="M76">
+        <v>3160</v>
+      </c>
+      <c r="N76">
+        <v>60323</v>
+      </c>
+      <c r="O76">
+        <v>1203</v>
+      </c>
+      <c r="P76">
+        <v>336</v>
+      </c>
+      <c r="Q76">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>487</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="0"/>
+        <v>-171</v>
+      </c>
+      <c r="L77">
+        <v>67801</v>
+      </c>
+      <c r="M77">
+        <v>3163</v>
+      </c>
+      <c r="N77">
+        <v>60810</v>
+      </c>
+      <c r="O77">
+        <v>1050</v>
+      </c>
+      <c r="P77">
+        <v>318</v>
+      </c>
+      <c r="Q77">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43915</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>391</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="0"/>
+        <v>-167</v>
+      </c>
+      <c r="L78">
+        <v>67801</v>
+      </c>
+      <c r="M78">
+        <v>3169</v>
+      </c>
+      <c r="N78">
+        <v>61201</v>
+      </c>
+      <c r="O78">
+        <v>914</v>
+      </c>
+      <c r="P78">
+        <v>287</v>
+      </c>
+      <c r="Q78">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>530</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="0"/>
+        <v>-202</v>
+      </c>
+      <c r="L79">
+        <v>67801</v>
+      </c>
+      <c r="M79">
+        <v>3174</v>
+      </c>
+      <c r="N79">
+        <v>61731</v>
+      </c>
+      <c r="O79">
+        <v>754</v>
+      </c>
+      <c r="P79">
+        <v>245</v>
+      </c>
+      <c r="Q79">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43940</v>
       </c>
     </row>
   </sheetData>
@@ -7702,10 +8399,10 @@
   <dimension ref="B1:L92"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
+      <selection pane="bottomRight" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9886,30 +10583,210 @@
       <c r="B74" s="5">
         <v>43911</v>
       </c>
+      <c r="C74">
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74" s="6">
+        <v>504</v>
+      </c>
+      <c r="F74" s="6">
+        <v>-118</v>
+      </c>
+      <c r="G74" s="6">
+        <v>45</v>
+      </c>
+      <c r="H74" s="6">
+        <v>81054</v>
+      </c>
+      <c r="I74" s="6">
+        <v>3261</v>
+      </c>
+      <c r="J74" s="6">
+        <v>72244</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1845</v>
+      </c>
+      <c r="L74" s="6">
+        <v>118</v>
+      </c>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="5">
         <v>43912</v>
       </c>
+      <c r="C75">
+        <v>39</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75" s="6">
+        <v>459</v>
+      </c>
+      <c r="F75" s="6">
+        <v>-96</v>
+      </c>
+      <c r="G75" s="6">
+        <v>47</v>
+      </c>
+      <c r="H75" s="6">
+        <v>81093</v>
+      </c>
+      <c r="I75" s="6">
+        <v>3270</v>
+      </c>
+      <c r="J75" s="6">
+        <v>72703</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1749</v>
+      </c>
+      <c r="L75" s="6">
+        <v>136</v>
+      </c>
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="5">
         <v>43913</v>
       </c>
+      <c r="C76">
+        <v>78</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76" s="6">
+        <v>456</v>
+      </c>
+      <c r="F76" s="6">
+        <v>-176</v>
+      </c>
+      <c r="G76" s="6">
+        <v>35</v>
+      </c>
+      <c r="H76" s="6">
+        <v>81171</v>
+      </c>
+      <c r="I76" s="6">
+        <v>3277</v>
+      </c>
+      <c r="J76" s="6">
+        <v>73159</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1573</v>
+      </c>
+      <c r="L76" s="6">
+        <v>132</v>
+      </c>
     </row>
     <row r="77" spans="2:12">
       <c r="B77" s="5">
         <v>43914</v>
       </c>
+      <c r="C77">
+        <v>47</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" s="6">
+        <v>491</v>
+      </c>
+      <c r="F77" s="6">
+        <v>-174</v>
+      </c>
+      <c r="G77" s="6">
+        <v>33</v>
+      </c>
+      <c r="H77" s="6">
+        <v>81218</v>
+      </c>
+      <c r="I77" s="6">
+        <v>3281</v>
+      </c>
+      <c r="J77" s="6">
+        <v>73650</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1399</v>
+      </c>
+      <c r="L77" s="6">
+        <v>134</v>
+      </c>
     </row>
     <row r="78" spans="2:12">
       <c r="B78" s="5">
         <v>43915</v>
       </c>
+      <c r="C78">
+        <v>67</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="6">
+        <v>401</v>
+      </c>
+      <c r="F78" s="6">
+        <v>-164</v>
+      </c>
+      <c r="G78" s="6">
+        <v>58</v>
+      </c>
+      <c r="H78" s="6">
+        <v>81285</v>
+      </c>
+      <c r="I78" s="6">
+        <v>3287</v>
+      </c>
+      <c r="J78" s="6">
+        <v>74051</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1325</v>
+      </c>
+      <c r="L78" s="6">
+        <v>159</v>
+      </c>
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="5">
         <v>43916</v>
+      </c>
+      <c r="C79">
+        <v>55</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" s="6">
+        <v>537</v>
+      </c>
+      <c r="F79" s="6">
+        <v>-201</v>
+      </c>
+      <c r="G79" s="6">
+        <v>49</v>
+      </c>
+      <c r="H79" s="6">
+        <v>81340</v>
+      </c>
+      <c r="I79" s="6">
+        <v>3292</v>
+      </c>
+      <c r="J79" s="6">
+        <v>74588</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1034</v>
+      </c>
+      <c r="L79" s="6">
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="2:12">
@@ -9986,15 +10863,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="174" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="174" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -10311,6 +11189,110 @@
       </c>
       <c r="D24" s="10" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B25">
+        <v>314</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B26">
+        <v>353</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B27">
+        <v>427</v>
+      </c>
+      <c r="C27">
+        <v>74</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B28">
+        <v>474</v>
+      </c>
+      <c r="C28">
+        <v>47</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B29">
+        <v>541</v>
+      </c>
+      <c r="C29">
+        <v>67</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B30">
+        <v>595</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1">
+        <v>43920</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C824FAC-50D8-9946-9278-00A9B6AF7C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A9FC6-88F9-BE41-AF5E-7DFF1EC28E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -2340,12 +2340,116 @@
         </r>
       </text>
     </comment>
+    <comment ref="C80" authorId="1" shapeId="0" xr:uid="{419B051B-9179-C947-A602-086134AEFBFA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G82" authorId="1" shapeId="0" xr:uid="{031A5466-B0BF-C64D-BA74-F11B8F0DC261}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C83" authorId="1" shapeId="0" xr:uid="{F24ADBDD-465A-1347-A3DC-BEFB34994770}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G83" authorId="1" shapeId="0" xr:uid="{F07B8678-7943-F64B-8FD4-8A0D13F1B215}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2661,6 +2765,18 @@
   <si>
     <t>上海17例，广东12例，北京4例，天津4例，内蒙古3例，浙江3例，福建3例，山东2例，云南2例，辽宁1例，江苏1例，四川1例，陕西1例</t>
   </si>
+  <si>
+    <t>上海17例，广东11例，福建6例，天津5例，浙江4例，北京3例，辽宁3例，山东1例</t>
+  </si>
+  <si>
+    <t>广东8例，天津7例，上海7例，北京4例，辽宁3例，江苏3例，浙江3例，四川2例，山西1例，内蒙古1例，吉林1例，福建1例，江西1例，重庆1例，贵州1例</t>
+  </si>
+  <si>
+    <t>疑似</t>
+  </si>
+  <si>
+    <t>重症</t>
+  </si>
 </sst>
 </file>
 
@@ -2840,7 +2956,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2868,6 +2984,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3150,13 +3272,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5263,6 +5385,334 @@
       </c>
       <c r="H79" s="6">
         <v>44591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43917</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>360</v>
+      </c>
+      <c r="F80">
+        <v>50006</v>
+      </c>
+      <c r="G80" s="6">
+        <v>2538</v>
+      </c>
+      <c r="H80" s="6">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43918</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>467</v>
+      </c>
+      <c r="F81">
+        <v>50006</v>
+      </c>
+      <c r="G81" s="6">
+        <v>2543</v>
+      </c>
+      <c r="H81" s="6">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43919</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>315</v>
+      </c>
+      <c r="F82">
+        <v>50006</v>
+      </c>
+      <c r="G82" s="6">
+        <v>2547</v>
+      </c>
+      <c r="H82" s="6">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43920</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>269</v>
+      </c>
+      <c r="F83">
+        <v>50006</v>
+      </c>
+      <c r="G83" s="6">
+        <v>2548</v>
+      </c>
+      <c r="H83" s="6">
+        <v>46002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1">
+        <v>43948</v>
       </c>
     </row>
   </sheetData>
@@ -5276,11 +5726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78:G79"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6381,7 +6831,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G79" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G83" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -8202,32 +8652,168 @@
       <c r="B80" s="1">
         <v>43917</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>367</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>-113</v>
+      </c>
+      <c r="L80">
+        <v>67801</v>
+      </c>
+      <c r="M80">
+        <v>3177</v>
+      </c>
+      <c r="N80">
+        <v>62098</v>
+      </c>
+      <c r="O80">
+        <v>659</v>
+      </c>
+      <c r="P80">
+        <v>227</v>
+      </c>
+      <c r="Q80">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>77</v>
       </c>
       <c r="B81" s="1">
         <v>43918</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>467</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="0"/>
+        <v>-176</v>
+      </c>
+      <c r="L81">
+        <v>67801</v>
+      </c>
+      <c r="M81">
+        <v>3182</v>
+      </c>
+      <c r="N81">
+        <v>62565</v>
+      </c>
+      <c r="O81">
+        <v>515</v>
+      </c>
+      <c r="P81">
+        <v>195</v>
+      </c>
+      <c r="Q81">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>78</v>
       </c>
       <c r="B82" s="1">
         <v>43919</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>317</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="0"/>
+        <v>-109</v>
+      </c>
+      <c r="L82">
+        <v>67801</v>
+      </c>
+      <c r="M82">
+        <v>3186</v>
+      </c>
+      <c r="N82">
+        <v>62882</v>
+      </c>
+      <c r="O82">
+        <v>427</v>
+      </c>
+      <c r="P82">
+        <v>174</v>
+      </c>
+      <c r="Q82">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>79</v>
       </c>
       <c r="B83" s="1">
         <v>43920</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>271</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="0"/>
+        <v>-104</v>
+      </c>
+      <c r="L83">
+        <v>67801</v>
+      </c>
+      <c r="M83">
+        <v>3187</v>
+      </c>
+      <c r="N83">
+        <v>63153</v>
+      </c>
+      <c r="O83">
+        <v>350</v>
+      </c>
+      <c r="P83">
+        <v>147</v>
+      </c>
+      <c r="Q83">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>80</v>
       </c>
@@ -8235,7 +8821,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>81</v>
       </c>
@@ -8243,7 +8829,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>82</v>
       </c>
@@ -8251,7 +8837,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>83</v>
       </c>
@@ -8259,7 +8845,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>84</v>
       </c>
@@ -8267,7 +8853,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>85</v>
       </c>
@@ -8275,7 +8861,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>86</v>
       </c>
@@ -8283,7 +8869,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>87</v>
       </c>
@@ -8291,7 +8877,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>88</v>
       </c>
@@ -8299,7 +8885,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>89</v>
       </c>
@@ -8307,7 +8893,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>90</v>
       </c>
@@ -8315,7 +8901,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>91</v>
       </c>
@@ -8323,7 +8909,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>92</v>
       </c>
@@ -8399,10 +8985,10 @@
   <dimension ref="B1:L92"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L79" sqref="L79"/>
+      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10793,63 +11379,183 @@
       <c r="B80" s="5">
         <v>43917</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80">
+        <v>54</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" s="6">
+        <v>383</v>
+      </c>
+      <c r="F80" s="6">
+        <v>-113</v>
+      </c>
+      <c r="G80" s="6">
+        <v>29</v>
+      </c>
+      <c r="H80" s="6">
+        <v>81394</v>
+      </c>
+      <c r="I80" s="6">
+        <v>3295</v>
+      </c>
+      <c r="J80" s="6">
+        <v>74971</v>
+      </c>
+      <c r="K80" s="6">
+        <v>921</v>
+      </c>
+      <c r="L80" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
       <c r="B81" s="5">
         <v>43918</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81">
+        <v>45</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" s="6">
+        <v>477</v>
+      </c>
+      <c r="F81" s="6">
+        <v>-179</v>
+      </c>
+      <c r="G81" s="6">
+        <v>28</v>
+      </c>
+      <c r="H81" s="6">
+        <v>81439</v>
+      </c>
+      <c r="I81" s="6">
+        <v>3300</v>
+      </c>
+      <c r="J81" s="6">
+        <v>75448</v>
+      </c>
+      <c r="K81" s="6">
+        <v>742</v>
+      </c>
+      <c r="L81" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
       <c r="B82" s="5">
         <v>43919</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="C82">
+        <v>31</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82" s="6">
+        <v>322</v>
+      </c>
+      <c r="F82" s="6">
+        <v>-109</v>
+      </c>
+      <c r="G82" s="6">
+        <v>17</v>
+      </c>
+      <c r="H82" s="6">
+        <v>81470</v>
+      </c>
+      <c r="I82" s="6">
+        <v>3304</v>
+      </c>
+      <c r="J82" s="6">
+        <v>75770</v>
+      </c>
+      <c r="K82" s="6">
+        <v>633</v>
+      </c>
+      <c r="L82" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83" s="5">
         <v>43920</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="C83">
+        <v>48</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>282</v>
+      </c>
+      <c r="F83" s="6">
+        <v>-105</v>
+      </c>
+      <c r="G83" s="6">
+        <v>44</v>
+      </c>
+      <c r="H83" s="6">
+        <v>81518</v>
+      </c>
+      <c r="I83" s="6">
+        <v>3305</v>
+      </c>
+      <c r="J83" s="6">
+        <v>76052</v>
+      </c>
+      <c r="K83" s="6">
+        <v>528</v>
+      </c>
+      <c r="L83" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84" s="5">
         <v>43921</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:12">
       <c r="B85" s="5">
         <v>43922</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:12">
       <c r="B86" s="5">
         <v>43923</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:12">
       <c r="B87" s="5">
         <v>43924</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:12">
       <c r="B88" s="5">
         <v>43925</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:12">
       <c r="B89" s="5">
         <v>43926</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:12">
       <c r="B90" s="5">
         <v>43927</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:12">
       <c r="B91" s="5">
         <v>43928</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:12">
       <c r="B92" s="5">
         <v>43929</v>
       </c>
@@ -10863,436 +11569,505 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A32" zoomScale="174" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="13"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>43887</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C3">
+        <v>43890</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>43891</v>
+      </c>
+      <c r="G4" s="13">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="1">
+        <v>43892</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>43893</v>
+      </c>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="H7" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="G8" s="13">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="G9" s="13">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B11">
+        <v>67</v>
+      </c>
+      <c r="G11" s="13">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B12">
+        <v>69</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B13">
+        <v>79</v>
+      </c>
+      <c r="G13" s="13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+      <c r="G14" s="13">
+        <v>6</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B17">
+        <v>111</v>
+      </c>
+      <c r="G17" s="13">
+        <v>16</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B18">
+        <v>123</v>
+      </c>
+      <c r="G18" s="13">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B19">
+        <v>143</v>
+      </c>
+      <c r="G19" s="13">
+        <v>20</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B20">
+        <v>155</v>
+      </c>
+      <c r="G20" s="13">
+        <v>12</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B21">
+        <v>189</v>
+      </c>
+      <c r="G21" s="13">
+        <v>34</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B22">
+        <v>228</v>
+      </c>
+      <c r="G22" s="13">
+        <v>39</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B23">
+        <v>269</v>
+      </c>
+      <c r="G23" s="13">
+        <v>41</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B24">
+        <v>314</v>
+      </c>
+      <c r="G24" s="13">
+        <v>45</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B25">
+        <v>353</v>
+      </c>
+      <c r="G25" s="13">
+        <v>39</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B26">
+        <v>427</v>
+      </c>
+      <c r="G26" s="13">
+        <v>74</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B27">
+        <v>474</v>
+      </c>
+      <c r="G27" s="13">
+        <v>47</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B28">
+        <v>541</v>
+      </c>
+      <c r="G28" s="13">
+        <v>67</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B29">
+        <v>595</v>
+      </c>
+      <c r="G29" s="13">
         <v>54</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>43890</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>43891</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="17">
-      <c r="A6" s="1">
-        <v>43892</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>43893</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B9">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B11">
-        <v>63</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B12">
-        <v>67</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B13">
-        <v>69</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B14">
-        <v>79</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B15">
-        <v>85</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B16">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B17">
-        <v>95</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B18">
-        <v>111</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B19">
-        <v>123</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B20">
-        <v>143</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B21">
-        <v>155</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B22">
-        <v>189</v>
-      </c>
-      <c r="C22">
-        <v>34</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B23">
-        <v>228</v>
-      </c>
-      <c r="C23">
-        <v>39</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B24">
-        <v>269</v>
-      </c>
-      <c r="C24">
-        <v>41</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B25">
-        <v>314</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B26">
-        <v>353</v>
-      </c>
-      <c r="C26">
-        <v>39</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B27">
-        <v>427</v>
-      </c>
-      <c r="C27">
-        <v>74</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B28">
-        <v>474</v>
-      </c>
-      <c r="C28">
-        <v>47</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B29">
-        <v>541</v>
-      </c>
-      <c r="C29">
-        <v>67</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="H29" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B30">
-        <v>595</v>
-      </c>
-      <c r="C30">
+        <v>649</v>
+      </c>
+      <c r="G30" s="13">
         <v>54</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="H30" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>43917</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>43918</v>
+      </c>
+      <c r="B31">
+        <v>693</v>
+      </c>
+      <c r="G31" s="13">
+        <v>44</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>43918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>43919</v>
+      </c>
+      <c r="B32">
+        <v>723</v>
+      </c>
+      <c r="C32">
+        <v>165</v>
+      </c>
+      <c r="D32">
+        <v>93</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+      <c r="G32" s="13" t="str">
+        <f>IMSUB(B32,B31)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1">
         <v>43920</v>
+      </c>
+      <c r="B33">
+        <v>771</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="D33">
+        <v>104</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33" s="13" t="str">
+        <f>IMSUB(B33,B32)</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A9FC6-88F9-BE41-AF5E-7DFF1EC28E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E2E2C4-9682-3E41-9F2B-A373AF8368EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2430,6 +2430,95 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G84" authorId="1" shapeId="0" xr:uid="{366894A9-FE1A-3849-A1C8-83236F3B7A55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C85" authorId="1" shapeId="0" xr:uid="{7D1ABA1A-9897-CA42-9B85-A46924A6A9C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Candice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>均为境外输入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G85" authorId="1" shapeId="0" xr:uid="{2EB012E8-B952-D744-BA0D-560386DEB173}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Candice</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="SimSun"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -3275,10 +3364,8 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5498,6 +5585,24 @@
       <c r="B84" s="1">
         <v>43921</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>173</v>
+      </c>
+      <c r="F84">
+        <v>50007</v>
+      </c>
+      <c r="G84" s="6">
+        <v>2553</v>
+      </c>
+      <c r="H84" s="6">
+        <v>46175</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
@@ -5506,6 +5611,24 @@
       <c r="B85" s="1">
         <v>43922</v>
       </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>145</v>
+      </c>
+      <c r="F85">
+        <v>50007</v>
+      </c>
+      <c r="G85" s="6">
+        <v>2559</v>
+      </c>
+      <c r="H85" s="6">
+        <v>46320</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
@@ -5514,6 +5637,24 @@
       <c r="B86" s="1">
         <v>43923</v>
       </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>141</v>
+      </c>
+      <c r="F86">
+        <v>50007</v>
+      </c>
+      <c r="G86" s="6">
+        <v>2563</v>
+      </c>
+      <c r="H86" s="6">
+        <v>46461</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
@@ -5522,6 +5663,24 @@
       <c r="B87" s="1">
         <v>43924</v>
       </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>150</v>
+      </c>
+      <c r="F87">
+        <v>50008</v>
+      </c>
+      <c r="G87" s="6">
+        <v>2567</v>
+      </c>
+      <c r="H87" s="6">
+        <v>46611</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
@@ -5530,6 +5689,24 @@
       <c r="B88" s="1">
         <v>43925</v>
       </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>183</v>
+      </c>
+      <c r="F88">
+        <v>50008</v>
+      </c>
+      <c r="G88" s="6">
+        <v>2570</v>
+      </c>
+      <c r="H88" s="6">
+        <v>46794</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
@@ -5538,6 +5715,24 @@
       <c r="B89" s="1">
         <v>43926</v>
       </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>69</v>
+      </c>
+      <c r="F89">
+        <v>50008</v>
+      </c>
+      <c r="G89" s="6">
+        <v>2571</v>
+      </c>
+      <c r="H89" s="6">
+        <v>46863</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
@@ -5546,6 +5741,24 @@
       <c r="B90" s="1">
         <v>43927</v>
       </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>59</v>
+      </c>
+      <c r="F90">
+        <v>50008</v>
+      </c>
+      <c r="G90" s="6">
+        <v>2571</v>
+      </c>
+      <c r="H90" s="6">
+        <v>46922</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
@@ -5554,6 +5767,24 @@
       <c r="B91" s="1">
         <v>43928</v>
       </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>69</v>
+      </c>
+      <c r="F91">
+        <v>50008</v>
+      </c>
+      <c r="G91" s="6">
+        <v>2572</v>
+      </c>
+      <c r="H91" s="6">
+        <v>46691</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
@@ -5562,6 +5793,24 @@
       <c r="B92" s="1">
         <v>43929</v>
       </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>45</v>
+      </c>
+      <c r="F92">
+        <v>50008</v>
+      </c>
+      <c r="G92" s="6">
+        <v>2574</v>
+      </c>
+      <c r="H92" s="6">
+        <v>47036</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
@@ -5570,6 +5819,24 @@
       <c r="B93" s="1">
         <v>43930</v>
       </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>49</v>
+      </c>
+      <c r="F93">
+        <v>50008</v>
+      </c>
+      <c r="G93" s="6">
+        <v>2575</v>
+      </c>
+      <c r="H93" s="6">
+        <v>47085</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
@@ -5578,6 +5845,24 @@
       <c r="B94" s="1">
         <v>43931</v>
       </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>27</v>
+      </c>
+      <c r="F94">
+        <v>50008</v>
+      </c>
+      <c r="G94" s="6">
+        <v>2577</v>
+      </c>
+      <c r="H94" s="6">
+        <v>47112</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
@@ -5585,6 +5870,24 @@
       </c>
       <c r="B95" s="1">
         <v>43932</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>50008</v>
+      </c>
+      <c r="G95" s="6">
+        <v>2577</v>
+      </c>
+      <c r="H95" s="6">
+        <v>47129</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5727,10 +6030,10 @@
   <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G82" sqref="G82:G83"/>
+      <selection pane="bottomRight" activeCell="Q95" sqref="Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6831,7 +7134,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G83" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G94" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -8820,6 +9123,40 @@
       <c r="B84" s="1">
         <v>43921</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>173</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>-62</v>
+      </c>
+      <c r="L84">
+        <v>67802</v>
+      </c>
+      <c r="M84">
+        <v>3193</v>
+      </c>
+      <c r="N84">
+        <v>63326</v>
+      </c>
+      <c r="O84">
+        <v>311</v>
+      </c>
+      <c r="P84">
+        <v>124</v>
+      </c>
+      <c r="Q84">
+        <v>1283</v>
+      </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85">
@@ -8828,6 +9165,40 @@
       <c r="B85" s="1">
         <v>43922</v>
       </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>145</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="L85">
+        <v>67802</v>
+      </c>
+      <c r="M85">
+        <v>3199</v>
+      </c>
+      <c r="N85">
+        <v>63471</v>
+      </c>
+      <c r="O85">
+        <v>280</v>
+      </c>
+      <c r="P85">
+        <v>120</v>
+      </c>
+      <c r="Q85">
+        <v>1132</v>
+      </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86">
@@ -8836,6 +9207,40 @@
       <c r="B86" s="1">
         <v>43923</v>
       </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>141</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="0"/>
+        <v>-51</v>
+      </c>
+      <c r="L86">
+        <v>67802</v>
+      </c>
+      <c r="M86">
+        <v>3203</v>
+      </c>
+      <c r="N86">
+        <v>63612</v>
+      </c>
+      <c r="O86">
+        <v>239</v>
+      </c>
+      <c r="P86">
+        <v>110</v>
+      </c>
+      <c r="Q86">
+        <v>987</v>
+      </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87">
@@ -8844,6 +9249,40 @@
       <c r="B87" s="1">
         <v>43924</v>
       </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>150</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="0"/>
+        <v>-46</v>
+      </c>
+      <c r="L87">
+        <v>67803</v>
+      </c>
+      <c r="M87">
+        <v>3207</v>
+      </c>
+      <c r="N87">
+        <v>63762</v>
+      </c>
+      <c r="O87">
+        <v>194</v>
+      </c>
+      <c r="P87">
+        <v>109</v>
+      </c>
+      <c r="Q87">
+        <v>834</v>
+      </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88">
@@ -8852,6 +9291,40 @@
       <c r="B88" s="1">
         <v>43925</v>
       </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>183</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="L88">
+        <v>67803</v>
+      </c>
+      <c r="M88">
+        <v>3210</v>
+      </c>
+      <c r="N88">
+        <v>63945</v>
+      </c>
+      <c r="O88">
+        <v>171</v>
+      </c>
+      <c r="P88">
+        <v>96</v>
+      </c>
+      <c r="Q88">
+        <v>648</v>
+      </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89">
@@ -8860,6 +9333,40 @@
       <c r="B89" s="1">
         <v>43926</v>
       </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>69</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+      <c r="L89">
+        <v>67803</v>
+      </c>
+      <c r="M89">
+        <v>3212</v>
+      </c>
+      <c r="N89">
+        <v>64014</v>
+      </c>
+      <c r="O89">
+        <v>149</v>
+      </c>
+      <c r="P89">
+        <v>85</v>
+      </c>
+      <c r="Q89">
+        <v>577</v>
+      </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90">
@@ -8868,6 +9375,40 @@
       <c r="B90" s="1">
         <v>43927</v>
       </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>59</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+      <c r="L90">
+        <v>67803</v>
+      </c>
+      <c r="M90">
+        <v>3212</v>
+      </c>
+      <c r="N90">
+        <v>64073</v>
+      </c>
+      <c r="O90">
+        <v>111</v>
+      </c>
+      <c r="P90">
+        <v>73</v>
+      </c>
+      <c r="Q90">
+        <v>518</v>
+      </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91">
@@ -8876,6 +9417,40 @@
       <c r="B91" s="1">
         <v>43928</v>
       </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>69</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+      <c r="L91">
+        <v>67803</v>
+      </c>
+      <c r="M91">
+        <v>3213</v>
+      </c>
+      <c r="N91">
+        <v>64142</v>
+      </c>
+      <c r="O91">
+        <v>84</v>
+      </c>
+      <c r="P91">
+        <v>74</v>
+      </c>
+      <c r="Q91">
+        <v>448</v>
+      </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92">
@@ -8884,6 +9459,40 @@
       <c r="B92" s="1">
         <v>43929</v>
       </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>45</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+      <c r="L92">
+        <v>67803</v>
+      </c>
+      <c r="M92">
+        <v>3215</v>
+      </c>
+      <c r="N92">
+        <v>64187</v>
+      </c>
+      <c r="O92">
+        <v>70</v>
+      </c>
+      <c r="P92">
+        <v>67</v>
+      </c>
+      <c r="Q92">
+        <v>401</v>
+      </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93">
@@ -8892,6 +9501,40 @@
       <c r="B93" s="1">
         <v>43930</v>
       </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>49</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+      <c r="L93">
+        <v>67803</v>
+      </c>
+      <c r="M93">
+        <v>3216</v>
+      </c>
+      <c r="N93">
+        <v>64236</v>
+      </c>
+      <c r="O93">
+        <v>54</v>
+      </c>
+      <c r="P93">
+        <v>49</v>
+      </c>
+      <c r="Q93">
+        <v>351</v>
+      </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94">
@@ -8900,6 +9543,40 @@
       <c r="B94" s="1">
         <v>43931</v>
       </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>28</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="L94">
+        <v>67803</v>
+      </c>
+      <c r="M94">
+        <v>3219</v>
+      </c>
+      <c r="N94">
+        <v>64264</v>
+      </c>
+      <c r="O94">
+        <v>51</v>
+      </c>
+      <c r="P94">
+        <v>44</v>
+      </c>
+      <c r="Q94">
+        <v>320</v>
+      </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95">
@@ -8907,6 +9584,33 @@
       </c>
       <c r="B95" s="1">
         <v>43932</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>17</v>
+      </c>
+      <c r="L95">
+        <v>67803</v>
+      </c>
+      <c r="M95">
+        <v>3219</v>
+      </c>
+      <c r="N95">
+        <v>64281</v>
+      </c>
+      <c r="O95">
+        <v>50</v>
+      </c>
+      <c r="P95">
+        <v>43</v>
+      </c>
+      <c r="Q95">
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8982,13 +9686,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L92"/>
+  <dimension ref="B1:L108"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11519,45 +12223,485 @@
       <c r="B84" s="5">
         <v>43921</v>
       </c>
+      <c r="C84">
+        <v>36</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84" s="6">
+        <v>186</v>
+      </c>
+      <c r="F84" s="6">
+        <v>-62</v>
+      </c>
+      <c r="G84" s="6">
+        <v>26</v>
+      </c>
+      <c r="H84" s="6">
+        <v>81554</v>
+      </c>
+      <c r="I84" s="6">
+        <v>3312</v>
+      </c>
+      <c r="J84" s="6">
+        <v>76238</v>
+      </c>
+      <c r="K84" s="6">
+        <v>466</v>
+      </c>
+      <c r="L84" s="6">
+        <v>172</v>
+      </c>
     </row>
     <row r="85" spans="2:12">
       <c r="B85" s="5">
         <v>43922</v>
       </c>
+      <c r="C85">
+        <v>35</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85" s="6">
+        <v>170</v>
+      </c>
+      <c r="F85" s="6">
+        <v>-37</v>
+      </c>
+      <c r="G85" s="6">
+        <v>20</v>
+      </c>
+      <c r="H85" s="6">
+        <v>81589</v>
+      </c>
+      <c r="I85" s="6">
+        <v>3318</v>
+      </c>
+      <c r="J85" s="6">
+        <v>76408</v>
+      </c>
+      <c r="K85" s="6">
+        <v>429</v>
+      </c>
+      <c r="L85" s="6">
+        <v>153</v>
+      </c>
     </row>
     <row r="86" spans="2:12">
       <c r="B86" s="5">
         <v>43923</v>
       </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" s="6">
+        <v>163</v>
+      </c>
+      <c r="F86" s="6">
+        <v>-50</v>
+      </c>
+      <c r="G86" s="6">
+        <v>12</v>
+      </c>
+      <c r="H86" s="6">
+        <v>81620</v>
+      </c>
+      <c r="I86" s="6">
+        <v>3322</v>
+      </c>
+      <c r="J86" s="6">
+        <v>76571</v>
+      </c>
+      <c r="K86" s="6">
+        <v>379</v>
+      </c>
+      <c r="L86" s="6">
+        <v>135</v>
+      </c>
     </row>
     <row r="87" spans="2:12">
       <c r="B87" s="5">
         <v>43924</v>
       </c>
+      <c r="C87">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" s="6">
+        <v>180</v>
+      </c>
+      <c r="F87" s="6">
+        <v>-48</v>
+      </c>
+      <c r="G87" s="6">
+        <v>11</v>
+      </c>
+      <c r="H87" s="6">
+        <v>81639</v>
+      </c>
+      <c r="I87" s="6">
+        <v>3326</v>
+      </c>
+      <c r="J87" s="6">
+        <v>76751</v>
+      </c>
+      <c r="K87" s="6">
+        <v>331</v>
+      </c>
+      <c r="L87" s="6">
+        <v>114</v>
+      </c>
     </row>
     <row r="88" spans="2:12">
       <c r="B88" s="5">
         <v>43925</v>
       </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="6">
+        <v>213</v>
+      </c>
+      <c r="F88" s="6">
+        <v>-36</v>
+      </c>
+      <c r="G88" s="6">
+        <v>11</v>
+      </c>
+      <c r="H88" s="6">
+        <v>81669</v>
+      </c>
+      <c r="I88" s="6">
+        <v>3329</v>
+      </c>
+      <c r="J88" s="6">
+        <v>76964</v>
+      </c>
+      <c r="K88" s="6">
+        <v>295</v>
+      </c>
+      <c r="L88" s="6">
+        <v>107</v>
+      </c>
     </row>
     <row r="89" spans="2:12">
       <c r="B89" s="5">
         <v>43926</v>
       </c>
+      <c r="C89">
+        <v>39</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>114</v>
+      </c>
+      <c r="F89" s="6">
+        <v>-30</v>
+      </c>
+      <c r="G89" s="6">
+        <v>10</v>
+      </c>
+      <c r="H89" s="6">
+        <v>81708</v>
+      </c>
+      <c r="I89" s="6">
+        <v>3331</v>
+      </c>
+      <c r="J89" s="6">
+        <v>77078</v>
+      </c>
+      <c r="K89" s="6">
+        <v>265</v>
+      </c>
+      <c r="L89" s="6">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="2:12">
       <c r="B90" s="5">
         <v>43927</v>
       </c>
+      <c r="C90">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>89</v>
+      </c>
+      <c r="F90" s="6">
+        <v>-54</v>
+      </c>
+      <c r="G90" s="6">
+        <v>12</v>
+      </c>
+      <c r="H90" s="6">
+        <v>81740</v>
+      </c>
+      <c r="I90" s="6">
+        <v>3331</v>
+      </c>
+      <c r="J90" s="6">
+        <v>77167</v>
+      </c>
+      <c r="K90" s="6">
+        <v>211</v>
+      </c>
+      <c r="L90" s="6">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="2:12">
       <c r="B91" s="5">
         <v>43928</v>
       </c>
+      <c r="C91">
+        <v>62</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" s="6">
+        <v>112</v>
+      </c>
+      <c r="F91" s="6">
+        <v>-22</v>
+      </c>
+      <c r="G91" s="6">
+        <v>12</v>
+      </c>
+      <c r="H91" s="6">
+        <v>81802</v>
+      </c>
+      <c r="I91" s="6">
+        <v>3333</v>
+      </c>
+      <c r="J91" s="6">
+        <v>77279</v>
+      </c>
+      <c r="K91" s="6">
+        <v>189</v>
+      </c>
+      <c r="L91" s="6">
+        <v>83</v>
+      </c>
     </row>
     <row r="92" spans="2:12">
       <c r="B92" s="5">
         <v>43929</v>
+      </c>
+      <c r="C92">
+        <v>63</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" s="6">
+        <v>91</v>
+      </c>
+      <c r="F92" s="6">
+        <v>-13</v>
+      </c>
+      <c r="G92" s="6">
+        <v>17</v>
+      </c>
+      <c r="H92" s="6">
+        <v>81865</v>
+      </c>
+      <c r="I92" s="6">
+        <v>3335</v>
+      </c>
+      <c r="J92" s="6">
+        <v>77370</v>
+      </c>
+      <c r="K92" s="6">
+        <v>176</v>
+      </c>
+      <c r="L92" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="5">
+        <v>43930</v>
+      </c>
+      <c r="C93">
+        <v>42</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6">
+        <v>85</v>
+      </c>
+      <c r="F93" s="6">
+        <v>-32</v>
+      </c>
+      <c r="G93" s="6">
+        <v>3</v>
+      </c>
+      <c r="H93" s="6">
+        <v>81907</v>
+      </c>
+      <c r="I93" s="6">
+        <v>3336</v>
+      </c>
+      <c r="J93" s="6">
+        <v>77455</v>
+      </c>
+      <c r="K93" s="6">
+        <v>144</v>
+      </c>
+      <c r="L93" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="5">
+        <v>43931</v>
+      </c>
+      <c r="C94">
+        <v>46</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" s="6">
+        <v>70</v>
+      </c>
+      <c r="F94" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G94" s="6">
+        <v>8</v>
+      </c>
+      <c r="H94" s="6">
+        <v>81953</v>
+      </c>
+      <c r="I94" s="6">
+        <v>3339</v>
+      </c>
+      <c r="J94" s="6">
+        <v>77525</v>
+      </c>
+      <c r="K94" s="6">
+        <v>141</v>
+      </c>
+      <c r="L94" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="5">
+        <v>43932</v>
+      </c>
+      <c r="C95">
+        <v>99</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
+        <v>50</v>
+      </c>
+      <c r="F95" s="6">
+        <v>-2</v>
+      </c>
+      <c r="G95" s="6">
+        <v>49</v>
+      </c>
+      <c r="H95" s="6">
+        <v>82052</v>
+      </c>
+      <c r="I95" s="6">
+        <v>3339</v>
+      </c>
+      <c r="J95" s="6">
+        <v>77575</v>
+      </c>
+      <c r="K95" s="6">
+        <v>139</v>
+      </c>
+      <c r="L95" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" s="5">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="5">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="5">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="5">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="5">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="5">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="5">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="5">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="5">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="5">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="5">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="5">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="5">
+        <v>43945</v>
       </c>
     </row>
   </sheetData>
@@ -11569,10 +12713,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="174" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView zoomScale="174" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12042,7 +13187,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="13" t="str">
-        <f>IMSUB(B32,B31)</f>
+        <f t="shared" ref="G32:G45" si="0">IMSUB(B32,B31)</f>
         <v>30</v>
       </c>
     </row>
@@ -12066,8 +13211,371 @@
         <v>18</v>
       </c>
       <c r="G33" s="13" t="str">
-        <f>IMSUB(B33,B32)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B34">
+        <v>806</v>
+      </c>
+      <c r="C34">
+        <v>169</v>
+      </c>
+      <c r="D34">
+        <v>115</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B35">
+        <v>841</v>
+      </c>
+      <c r="C35">
+        <v>152</v>
+      </c>
+      <c r="D35">
+        <v>140</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B36">
+        <v>870</v>
+      </c>
+      <c r="C36">
+        <v>135</v>
+      </c>
+      <c r="D36">
+        <v>160</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+      <c r="G36" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B37">
+        <v>888</v>
+      </c>
+      <c r="C37">
+        <v>114</v>
+      </c>
+      <c r="D37">
+        <v>190</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>17</v>
+      </c>
+      <c r="G37" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B38">
+        <v>913</v>
+      </c>
+      <c r="C38">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <v>216</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>18</v>
+      </c>
+      <c r="G38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B39">
+        <v>951</v>
+      </c>
+      <c r="C39">
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <v>258</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+      <c r="G39" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B40">
+        <v>983</v>
+      </c>
+      <c r="C40">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>285</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B41">
+        <v>1042</v>
+      </c>
+      <c r="C41">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>328</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>23</v>
+      </c>
+      <c r="G41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B42">
+        <v>1103</v>
+      </c>
+      <c r="C42">
+        <v>71</v>
+      </c>
+      <c r="D42">
+        <v>374</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>31</v>
+      </c>
+      <c r="G42" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B43">
+        <v>1141</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>408</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B44">
+        <v>1183</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>449</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>37</v>
+      </c>
+      <c r="G44" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B45">
+        <v>1280</v>
+      </c>
+      <c r="C45">
+        <v>82</v>
+      </c>
+      <c r="D45">
+        <v>481</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>36</v>
+      </c>
+      <c r="G45" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1">
+        <v>43947</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E2E2C4-9682-3E41-9F2B-A373AF8368EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBBA338-667E-DF4E-A8CE-323E4DB8F91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -3363,9 +3363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5897,40 +5897,130 @@
       <c r="B96" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>57</v>
+      </c>
+      <c r="F96">
+        <v>50008</v>
+      </c>
+      <c r="G96" s="6">
+        <v>2579</v>
+      </c>
+      <c r="H96" s="6">
+        <v>47186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>93</v>
       </c>
       <c r="B97" s="1">
         <v>43934</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>50008</v>
+      </c>
+      <c r="G97" s="6">
+        <v>2579</v>
+      </c>
+      <c r="H97" s="6">
+        <v>47211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>94</v>
       </c>
       <c r="B98" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>39</v>
+      </c>
+      <c r="F98">
+        <v>50008</v>
+      </c>
+      <c r="G98" s="6">
+        <v>2579</v>
+      </c>
+      <c r="H98" s="6">
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>95</v>
       </c>
       <c r="B99" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>33</v>
+      </c>
+      <c r="F99">
+        <v>50008</v>
+      </c>
+      <c r="G99" s="6">
+        <v>2579</v>
+      </c>
+      <c r="H99" s="6">
+        <v>47283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>96</v>
       </c>
       <c r="B100" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>17</v>
+      </c>
+      <c r="F100">
+        <v>50008</v>
+      </c>
+      <c r="G100" s="6">
+        <v>2579</v>
+      </c>
+      <c r="H100" s="6">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>97</v>
       </c>
@@ -5938,7 +6028,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>98</v>
       </c>
@@ -5946,7 +6036,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>99</v>
       </c>
@@ -5954,7 +6044,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>100</v>
       </c>
@@ -5962,7 +6052,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>101</v>
       </c>
@@ -5970,7 +6060,7 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>102</v>
       </c>
@@ -5978,7 +6068,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>103</v>
       </c>
@@ -5986,7 +6076,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>104</v>
       </c>
@@ -5994,7 +6084,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>105</v>
       </c>
@@ -6002,7 +6092,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>106</v>
       </c>
@@ -6010,7 +6100,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>107</v>
       </c>
@@ -6029,11 +6119,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J89" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q95" sqref="Q95"/>
+      <selection pane="bottomRight" activeCell="Q100" sqref="Q100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7134,7 +7224,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G94" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G100" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -9594,6 +9684,13 @@
       <c r="E95">
         <v>17</v>
       </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
       <c r="L95">
         <v>67803</v>
       </c>
@@ -9620,40 +9717,210 @@
       <c r="B96" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>57</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="L96">
+        <v>67803</v>
+      </c>
+      <c r="M96">
+        <v>3221</v>
+      </c>
+      <c r="N96">
+        <v>64338</v>
+      </c>
+      <c r="O96">
+        <v>38</v>
+      </c>
+      <c r="P96">
+        <v>37</v>
+      </c>
+      <c r="Q96">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>93</v>
       </c>
       <c r="B97" s="1">
         <v>43934</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="L97">
+        <v>67803</v>
+      </c>
+      <c r="M97">
+        <v>3221</v>
+      </c>
+      <c r="N97">
+        <v>64363</v>
+      </c>
+      <c r="O97">
+        <v>32</v>
+      </c>
+      <c r="P97">
+        <v>37</v>
+      </c>
+      <c r="Q97">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>94</v>
       </c>
       <c r="B98" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>39</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="L98">
+        <v>67803</v>
+      </c>
+      <c r="M98">
+        <v>3222</v>
+      </c>
+      <c r="N98">
+        <v>64402</v>
+      </c>
+      <c r="O98">
+        <v>24</v>
+      </c>
+      <c r="P98">
+        <v>33</v>
+      </c>
+      <c r="Q98">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>95</v>
       </c>
       <c r="B99" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>33</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="0"/>
+        <v>-19</v>
+      </c>
+      <c r="L99">
+        <v>67803</v>
+      </c>
+      <c r="M99">
+        <v>3222</v>
+      </c>
+      <c r="N99">
+        <v>64435</v>
+      </c>
+      <c r="O99">
+        <v>18</v>
+      </c>
+      <c r="P99">
+        <v>20</v>
+      </c>
+      <c r="Q99">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>96</v>
       </c>
       <c r="B100" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>17</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="L100">
+        <v>67803</v>
+      </c>
+      <c r="M100">
+        <v>3222</v>
+      </c>
+      <c r="N100">
+        <v>64452</v>
+      </c>
+      <c r="O100">
+        <v>15</v>
+      </c>
+      <c r="P100">
+        <v>17</v>
+      </c>
+      <c r="Q100">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>97</v>
       </c>
@@ -9661,7 +9928,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>98</v>
       </c>
@@ -9669,7 +9936,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>99</v>
       </c>
@@ -9689,10 +9956,10 @@
   <dimension ref="B1:L108"/>
   <sheetViews>
     <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12643,63 +12910,213 @@
       <c r="B96" s="5">
         <v>43933</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96">
+        <v>108</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" s="6">
+        <v>88</v>
+      </c>
+      <c r="F96" s="6">
+        <v>-18</v>
+      </c>
+      <c r="G96" s="6">
+        <v>6</v>
+      </c>
+      <c r="H96" s="6">
+        <v>82160</v>
+      </c>
+      <c r="I96" s="6">
+        <v>3341</v>
+      </c>
+      <c r="J96" s="6">
+        <v>77663</v>
+      </c>
+      <c r="K96" s="6">
+        <v>121</v>
+      </c>
+      <c r="L96" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
       <c r="B97" s="5">
         <v>43934</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="C97">
+        <v>89</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>75</v>
+      </c>
+      <c r="F97" s="6">
+        <v>-5</v>
+      </c>
+      <c r="G97" s="6">
+        <v>3</v>
+      </c>
+      <c r="H97" s="6">
+        <v>88249</v>
+      </c>
+      <c r="I97" s="6">
+        <v>3341</v>
+      </c>
+      <c r="J97" s="6">
+        <v>77738</v>
+      </c>
+      <c r="K97" s="6">
+        <v>116</v>
+      </c>
+      <c r="L97" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
       <c r="B98" s="5">
         <v>43935</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="C98">
+        <v>46</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>78</v>
+      </c>
+      <c r="F98" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G98" s="6">
+        <v>11</v>
+      </c>
+      <c r="H98" s="6">
+        <v>82295</v>
+      </c>
+      <c r="I98" s="6">
+        <v>3342</v>
+      </c>
+      <c r="J98" s="6">
+        <v>77816</v>
+      </c>
+      <c r="K98" s="6">
+        <v>113</v>
+      </c>
+      <c r="L98" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12">
       <c r="B99" s="5">
         <v>43936</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99">
+        <v>46</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
+        <v>76</v>
+      </c>
+      <c r="F99" s="6">
+        <v>-18</v>
+      </c>
+      <c r="G99" s="6">
+        <v>4</v>
+      </c>
+      <c r="H99" s="6">
+        <v>82341</v>
+      </c>
+      <c r="I99" s="6">
+        <v>3342</v>
+      </c>
+      <c r="J99" s="6">
+        <v>77892</v>
+      </c>
+      <c r="K99" s="6">
+        <v>95</v>
+      </c>
+      <c r="L99" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12">
       <c r="B100" s="5">
         <v>43937</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="C100">
+        <v>26</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" s="6">
+        <v>52</v>
+      </c>
+      <c r="F100" s="6">
+        <v>-6</v>
+      </c>
+      <c r="G100" s="6">
+        <v>3</v>
+      </c>
+      <c r="H100" s="6">
+        <v>82367</v>
+      </c>
+      <c r="I100" s="6">
+        <v>3342</v>
+      </c>
+      <c r="J100" s="6">
+        <v>722909</v>
+      </c>
+      <c r="K100" s="6">
+        <v>89</v>
+      </c>
+      <c r="L100" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12">
       <c r="B101" s="5">
         <v>43938</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:12">
       <c r="B102" s="5">
         <v>43939</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:12">
       <c r="B103" s="5">
         <v>43940</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:12">
       <c r="B104" s="5">
         <v>43941</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:12">
       <c r="B105" s="5">
         <v>43942</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:12">
       <c r="B106" s="5">
         <v>43943</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:12">
       <c r="B107" s="5">
         <v>43944</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:12">
       <c r="B108" s="5">
         <v>43945</v>
       </c>
@@ -12716,8 +13133,8 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView zoomScale="174" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44:G45"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13187,7 +13604,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="13" t="str">
-        <f t="shared" ref="G32:G45" si="0">IMSUB(B32,B31)</f>
+        <f t="shared" ref="G32:G50" si="0">IMSUB(B32,B31)</f>
         <v>30</v>
       </c>
     </row>
@@ -13507,73 +13924,168 @@
       <c r="A46" s="1">
         <v>43933</v>
       </c>
+      <c r="B46">
+        <v>1378</v>
+      </c>
+      <c r="C46">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <v>511</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>38</v>
+      </c>
+      <c r="G46" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>43934</v>
       </c>
+      <c r="B47">
+        <v>1464</v>
+      </c>
+      <c r="C47">
+        <v>72</v>
+      </c>
+      <c r="D47">
+        <v>559</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>37</v>
+      </c>
+      <c r="G47" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>1500</v>
+      </c>
+      <c r="C48">
+        <v>72</v>
+      </c>
+      <c r="D48">
+        <v>596</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>45</v>
+      </c>
+      <c r="G48" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1534</v>
+      </c>
+      <c r="C49">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>636</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="G49" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>1549</v>
+      </c>
+      <c r="C50">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>670</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>45</v>
+      </c>
+      <c r="G50" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>43941</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>43942</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>43943</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>43944</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>43946</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>43947</v>
       </c>
